--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -64,12 +64,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,88 +88,88 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -623,13 +623,13 @@
         <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.559322033898305</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.544973544973545</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5387596899224806</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C10">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D10">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K10">
-        <v>0.79375</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5234899328859061</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
@@ -1049,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5098039215686274</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>33</v>
@@ -1099,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4133333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2777777777777778</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2698412698412698</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.76875</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.160857908847185</v>
+        <v>0.1501340482573726</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1299,37 +1299,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01160167579761521</v>
+        <v>0.0106280193236715</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F17">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3067</v>
+        <v>3072</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1349,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K18">
-        <v>0.7619047619047619</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1375,13 +1375,13 @@
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.7291666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1401,13 +1401,13 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1427,13 +1427,13 @@
         <v>42</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1453,13 +1453,13 @@
         <v>43</v>
       </c>
       <c r="K22">
-        <v>0.6264705882352941</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L22">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M22">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1479,13 +1479,13 @@
         <v>44</v>
       </c>
       <c r="K23">
-        <v>0.5966101694915255</v>
+        <v>0.6108786610878661</v>
       </c>
       <c r="L23">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="M23">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1505,13 +1505,13 @@
         <v>45</v>
       </c>
       <c r="K24">
-        <v>0.5899581589958159</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="M24">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1531,13 +1531,13 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1557,13 +1557,13 @@
         <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1583,13 +1583,13 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L27">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1609,13 +1609,13 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5280898876404494</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1635,13 +1635,13 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5142857142857142</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1661,13 +1661,13 @@
         <v>51</v>
       </c>
       <c r="K30">
-        <v>0.3835616438356164</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1687,13 +1687,13 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>0.3205128205128205</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
